--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Desktop\iEnergy-Tools-Portal-with-salary-query\Salary-Calculator-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Desktop\iEnergy-Tools-Portal-salary-query-fix\Salary-Calculator-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B007574-9E77-476C-900B-ED460834507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDEE3E4-0F64-4FF7-BA63-942A04AD21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,19 +86,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,55 +115,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -183,21 +136,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4849E3DD-47C1-4A24-BCCD-59F282559BF8}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:F10" xr:uid="{4849E3DD-47C1-4A24-BCCD-59F282559BF8}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{024C4DDE-593F-4563-8876-35CD9DB27C38}" name="EmployeeCode" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CB5F7BB5-4A68-418F-A26D-37A07285B93C}" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{84582B67-D836-47AE-9E75-D77941FBA086}" name="Position" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{CACE55FF-0191-46FA-85EB-B4668A9886B7}" name="HiringDate" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{421889C6-0437-4B6B-A0B2-71BBB09F0FB5}" name="BasicGrossSalary" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{D1A1B15E-F0DD-4155-9941-1ADF1F7BE73E}" name="BasicSocialInsuranceSalary" dataDxfId="1" dataCellStyle="Comma"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,223 +426,220 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>250013</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>45809</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>9200</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>7080</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>250021</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>46007</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>9200</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>7080</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>240006</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>45505</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>6000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>5500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>240009</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>45597</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>6000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>5500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>240010</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>45627</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>6000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>5500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>250014</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>45809</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>6000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>5500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>250016</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>45809</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>5500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>250017</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>45809</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>6000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>5500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>250020</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>45994</v>
       </c>
-      <c r="E10" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10">
+        <v>5500</v>
+      </c>
+      <c r="F10">
         <v>5500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Desktop\iEnergy-Tools-Portal-salary-query-fix\Salary-Calculator-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Moustafa\OneDrive\Desktop\iEnergy-Tools-Portal-salary-query-working\Salary-Calculator-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDEE3E4-0F64-4FF7-BA63-942A04AD21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23723C0A-1E6A-430F-BAEA-BA556B35C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,10 +86,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,17 +123,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -136,6 +182,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4849E3DD-47C1-4A24-BCCD-59F282559BF8}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F10" xr:uid="{4849E3DD-47C1-4A24-BCCD-59F282559BF8}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{024C4DDE-593F-4563-8876-35CD9DB27C38}" name="EmployeeCode" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CB5F7BB5-4A68-418F-A26D-37A07285B93C}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{84582B67-D836-47AE-9E75-D77941FBA086}" name="Position" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{CACE55FF-0191-46FA-85EB-B4668A9886B7}" name="HiringDate" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{421889C6-0437-4B6B-A0B2-71BBB09F0FB5}" name="BasicGrossSalary" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{D1A1B15E-F0DD-4155-9941-1ADF1F7BE73E}" name="BasicSocialInsuranceSalary" dataDxfId="1" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,220 +487,223 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>250013</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>45809</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>9200</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>7080</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>250021</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>46007</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>9200</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>7080</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>240006</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>45505</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>6000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>5500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>240009</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>45597</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>6000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>240010</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>45627</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>6000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>5500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>250014</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>45809</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>6000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>5500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>250016</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>45809</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>6000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>5500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>250017</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>45809</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>6000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>5500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>250020</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>45994</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5500</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>5500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>